--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,190 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/korona-kielce-warta-poznan/OUHUBtV7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45205.86111111111</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-puszcza/QZeDzQ78/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8737,6 +8737,190 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:18</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-lks-lodz/WWbLY3xL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>29/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>29/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/widzew-lodz-stal-mielec/jHuhTs0r/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,6 +8921,190 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45206.72916666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-piast-gliwice/pvJQCMF1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-pogon-szczecin/ANcPXNiR/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9105,6 +9105,190 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-gornik-zabrze/U7vdS1Fl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-jagiellonia/G4EMD20e/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-rakow-czestochowa/xAaHZqNE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9381,6 +9381,190 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/piast-gliwice-pogon-szczecin/bmWCOJED/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45219.85416666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/jagiellonia-zaglebie/xYs4Qup1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9565,6 +9565,98 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/puszcza-cracovia/QgKfm3iE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9657,6 +9657,190 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45220.72916666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-legia/h8zyTY5a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-lks-lodz/KdX8Paa7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9841,6 +9841,282 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:15</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:15</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:15</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-korona-kielce/2JsOVzMt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45221.72916666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:20</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>11/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/gornik-zabrze-rakow-czestochowa/OUw0RLUf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/stal-mielec-warta-poznan/prXSUfym/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,6 +10117,98 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45223.75</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:11</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>24/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>24/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>24/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-jagiellonia/dpVeHs6f/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10209,6 +10209,834 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45226.75</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/korona-kielce-puszcza/SQSmQWkI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45226.85416666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-gornik-zabrze/Yu1BQ01b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45227.52083333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/warta-poznan-piast-gliwice/fk27Rtnh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/pogon-szczecin-jagiellonia/KYpeOAKU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45227.72916666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>24/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-lech-poznan/WbZvShL5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45227.83333333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-slask-wroclaw/QFc3SMWo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45228.52083333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-radomiak-radom/lzUqRCzC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>24/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>24/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>24/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-stal-mielec/MmSiPj5O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45228.72916666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/rakow-czestochowa-widzew-lodz/nPbaT2Hu/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11037,6 +11037,190 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/piast-gliwice-korona-kielce/2LhSMI0N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45233.85416666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/jagiellonia-stal-mielec/U7fKOvWA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11221,6 +11221,282 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:44</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/puszcza-pogon-szczecin/rX9PLxGT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45234.72916666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:10</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/widzew-lodz-warta-poznan/Cnlwu0Gi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45234.83333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:51</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-ruch-chorzow/OUgONboH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11497,6 +11497,190 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-lks-lodz/fBwrvKVc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>5</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:34</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/rakow-czestochowa-zaglebie/bqpZut1o/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,6 +11681,98 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45235.72916666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-legia/ptdiHdOp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11773,6 +11773,98 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:47</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/gornik-zabrze-cracovia/G4jGPKG4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11865,6 +11865,190 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/warta-poznan-puszcza/8E3HhJpi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45240.85416666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-slask-wroclaw/Y1xnwvo4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12049,6 +12049,282 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-piast-gliwice/n52Liw0c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45241.72916666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:21</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:21</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-widzew-lodz/2ysjxb0A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45241.83333333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/korona-kielce-jagiellonia/tSufyIFG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12325,6 +12325,190 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:20</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:20</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:20</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/stal-mielec-gornik-zabrze/WdKYTZ7j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/pogon-szczecin-rakow-czestochowa/zRY2ZepT/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12509,6 +12509,98 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45242.72916666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:23</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:23</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:23</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-lech-poznan/OjVbzxVM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12601,6 +12601,98 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45243.79166666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-radomiak-radom/h6LUUFhp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12693,6 +12693,98 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45248.72916666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>11/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>11/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>11/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/widzew-lodz-ruch-chorzow/boyXTEjg/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12785,6 +12785,190 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45254.75</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-zaglebie/Maxb5dUd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45254.85416666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>17/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/jagiellonia-piast-gliwice/tS1PjcF3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12969,6 +12969,558 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/rakow-czestochowa-cracovia/fgpCsgxj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45255.72916666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:01</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:00</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/pogon-szczecin-stal-mielec/GpfxleaM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45255.83333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:51</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>18/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-warta-poznan/xfeYlypG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45256.52083333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/puszcza-gornik-zabrze/AL8umFES/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-korona-kielce/8dlGtDid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45256.72916666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-widzew-lodz/fV5TkHU9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13521,6 +13521,98 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45257.79166666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-slask-wroclaw/CUf7rZMq/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13613,6 +13613,190 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/warta-poznan-jagiellonia/M3pirQS0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45261.85416666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/gornik-zabrze-pogon-szczecin/IRV63za9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13797,6 +13797,190 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45262.72916666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:22</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:22</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/widzew-lodz-radomiak-radom/jwkespr7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45262.83333333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:30</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:30</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:30</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/korona-kielce-lech-poznan/lEhvoSrr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13981,6 +13981,1938 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45263.52083333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:22</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:22</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-ruch-chorzow/0jy24Gq3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-legia/dIUA2fEF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45263.72916666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-rakow-czestochowa/UTmat4cD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45268.75</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-zaglebie/8zyRf3C6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45268.85416666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/pogon-szczecin-warta-poznan/MJYEc5Sm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-gornik-zabrze/fXWMeqc0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45269.72916666666</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-stal-mielec/pxWo47kK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45269.83333333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:39</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:38</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-korona-kielce/UkPZhssJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45270.52083333334</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:05</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-piast-gliwice/t8HHboDs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-legia/jaQVgNRC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45270.72916666666</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>4</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/jagiellonia-rakow-czestochowa/vaVk3R4Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45271.79166666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/puszcza-widzew-lodz/0AXIdPsf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45275.75</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/gornik-zabrze-warta-poznan/I5IHHQJJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45275.85416666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-slask-wroclaw/ddHLGpZP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>3</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/puszcza-jagiellonia/foCeArCg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45276.72916666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:18</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:17</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/widzew-lodz-pogon-szczecin/U3487tdC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45276.83333333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-lech-poznan/YyBa92Ra/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45277.52083333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-ruch-chorzow/OQ3C60BI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/rakow-czestochowa-korona-kielce/jD548Mt6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45277.72916666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:27</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-cracovia/2wflC4ss/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45278.79166666666</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>3</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>11/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>18/12/2023 18:46</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>11/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>18/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>11/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>18/12/2023 18:46</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/piast-gliwice-stal-mielec/0OCiBOdm/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15913,6 +15913,98 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45280.79166666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-legia/zgFGO4dN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
